--- a/test/edp/liquefaction/Hazus2020_with_ZhuEtal2017.xlsx
+++ b/test/edp/liquefaction/Hazus2020_with_ZhuEtal2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/edp/liquefaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{5D1A12CB-9F3E-4C33-AEB5-725A676ACF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323017B0-6C42-4F18-BD27-42F4819787B8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{5D1A12CB-9F3E-4C33-AEB5-725A676ACF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C449D5AD-BBD9-44D8-8A29-0C6668B16B14}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hazus2020_with_ZhuEtal2017" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+      <selection activeCell="P2" sqref="P2:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1044,12 @@
         <v>0.25</v>
       </c>
       <c r="P2">
-        <f>IF(I2&lt;0.1,0.001,IF(A2&gt;620,0.001,IF(B2&gt;1700,0.001,MAX(N2/L2/M2*O2*100,0.001))))</f>
-        <v>1E-3</v>
+        <f>IF(I2&lt;0.1,0.00001,IF(A2&gt;620,0.00001,MAX(N2/L2/M2*O2,0.00001)))</f>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q2">
         <f>(EXP(0.25)-1)*P2</f>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1103,12 +1103,12 @@
         <v>0.1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P25" si="4">IF(I3&lt;0.1,0.001,IF(A3&gt;620,0.001,IF(B3&gt;1700,0.001,MAX(N3/L3/M3*O3*100,0.001))))</f>
-        <v>1E-3</v>
+        <f t="shared" ref="P3:P25" si="4">IF(I3&lt;0.1,0.00001,IF(A3&gt;620,0.00001,MAX(N3/L3/M3*O3,0.00001)))</f>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q25" si="5">(EXP(0.25)-1)*P3</f>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1222,11 +1222,11 @@
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>18.225289447066714</v>
+        <v>0.18225289447066714</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>5.1764454294578197</v>
+        <v>5.1764454294578197E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1458,11 +1458,11 @@
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>6.3455590749492714</v>
+        <v>6.345559074949271E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>1.8023000603791457</v>
+        <v>1.8023000603791455E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>5.4873075610223809</v>
+        <v>5.4873075610223809E-2</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>1.5585348165131756</v>
+        <v>1.5585348165131756E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1576,11 +1576,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>0.40832425150840213</v>
+        <v>4.0832425150840214E-3</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>0.11597446567838403</v>
+        <v>1.1597446567838403E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.32948482263397055</v>
+        <v>3.2948482263397056E-3</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>9.3582064040900054E-2</v>
+        <v>9.3582064040900054E-4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>0.36331938384065193</v>
+        <v>3.6331938384065194E-3</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>0.10319193938607463</v>
+        <v>1.0319193938607462E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1753,11 +1753,11 @@
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1871,11 +1871,11 @@
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1930,11 +1930,11 @@
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1989,11 +1989,11 @@
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q19">
         <f t="shared" si="5"/>
-        <v>2.8402541668774142E-4</v>
+        <v>2.840254166877414E-6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>13.718268902555952</v>
+        <v>0.13718268902555952</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>3.8963370412829392</v>
+        <v>3.8963370412829393E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2166,11 +2166,11 @@
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>5.4344175103505643</v>
+        <v>5.4344175103505643E-2</v>
       </c>
       <c r="Q21">
         <f t="shared" si="5"/>
-        <v>1.5435126978324771</v>
+        <v>1.5435126978324772E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2225,11 +2225,11 @@
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>3.6681261837520047</v>
+        <v>3.6681261837520046E-2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="5"/>
-        <v>1.0418410678033778</v>
+        <v>1.0418410678033778E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>0.43798280857253724</v>
+        <v>4.3798280857253727E-3</v>
       </c>
       <c r="Q23">
         <f t="shared" si="5"/>
-        <v>0.12439824970688217</v>
+        <v>1.2439824970688217E-3</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2343,11 +2343,11 @@
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>0.60782554203571793</v>
+        <v>6.078255420357179E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="5"/>
-        <v>0.17263790285014705</v>
+        <v>1.7263790285014706E-3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.78289470550313922</v>
+        <v>7.8289470550313919E-3</v>
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>0.2223619949531557</v>
+        <v>2.2236199495315571E-3</v>
       </c>
     </row>
   </sheetData>
